--- a/data.xlsx
+++ b/data.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4635" tabRatio="748" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Task 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Task 2A" sheetId="5" r:id="rId2"/>
+    <sheet name="Task 2B" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Vector Implementation</t>
   </si>
@@ -35,7 +34,79 @@
     <t>Standard Vector</t>
   </si>
   <si>
-    <t>10</t>
+    <t>Bubblesort</t>
+  </si>
+  <si>
+    <t>Insertionsort</t>
+  </si>
+  <si>
+    <t>Mergesort</t>
+  </si>
+  <si>
+    <t>Quicksort</t>
+  </si>
+  <si>
+    <t>Selectionsort</t>
+  </si>
+  <si>
+    <t>Countingsort</t>
+  </si>
+  <si>
+    <t>Radixsort</t>
+  </si>
+  <si>
+    <t>Bucketsort</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Average Complexity</t>
+  </si>
+  <si>
+    <t>O(n^2)</t>
+  </si>
+  <si>
+    <t>O(n*log(n))</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>10000</t>
   </si>
 </sst>
 </file>
@@ -72,17 +143,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -151,7 +229,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>'Task 1'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -185,9 +263,10 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Task 1'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -204,12 +283,12 @@
                 <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:f>'Task 1'!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -238,7 +317,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>'Task 1'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -272,9 +351,10 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Task 1'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -291,12 +371,12 @@
                 <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$F$3</c:f>
+              <c:f>'Task 1'!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -330,11 +410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103684048"/>
-        <c:axId val="103693296"/>
+        <c:axId val="-277469952"/>
+        <c:axId val="-277467776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103684048"/>
+        <c:axId val="-277469952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -377,7 +457,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103693296"/>
+        <c:crossAx val="-277467776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -385,7 +465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103693296"/>
+        <c:axId val="-277467776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0000000000000002E-2"/>
@@ -438,7 +518,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103684048"/>
+        <c:crossAx val="-277469952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -575,7 +655,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$A$2</c:f>
+              <c:f>'Task 1'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -610,48 +690,48 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet4!$B$1:$F$1</c:f>
+              <c:f>'Task 1'!$B$19:$F$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$2:$F$2</c:f>
+              <c:f>'Task 1'!$B$20:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.5863299999999999E-2</c:v>
+                  <c:v>1.3547500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7210799999999997E-2</c:v>
+                  <c:v>1.10843E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8147799999999994E-2</c:v>
+                  <c:v>1.2726400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6768900000000001E-2</c:v>
+                  <c:v>1.4779E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10879</c:v>
+                  <c:v>1.8473799999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -663,7 +743,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$A$3</c:f>
+              <c:f>'Task 1'!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -698,48 +778,48 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet4!$B$1:$F$1</c:f>
+              <c:f>'Task 1'!$B$19:$F$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$3:$F$3</c:f>
+              <c:f>'Task 1'!$B$21:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.8326500000000001E-2</c:v>
+                  <c:v>3.6947600000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.07897E-2</c:v>
+                  <c:v>4.9263500000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.17267E-2</c:v>
+                  <c:v>5.7474099999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6800300000000003E-2</c:v>
+                  <c:v>8.2105800000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1316100000000003E-2</c:v>
+                  <c:v>8.2105800000000003E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -756,17 +836,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41159552"/>
-        <c:axId val="41157920"/>
+        <c:axId val="-77619760"/>
+        <c:axId val="-77617040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="41159552"/>
+        <c:axId val="-77619760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -803,7 +883,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41157920"/>
+        <c:crossAx val="-77617040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -811,7 +891,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41157920"/>
+        <c:axId val="-77617040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +942,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41159552"/>
+        <c:crossAx val="-77619760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -958,36 +1038,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nl-NL"/>
-              <a:t>Time</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nl-NL" baseline="0"/>
-              <a:t> difference of pushing back 100 elements</a:t>
-            </a:r>
-            <a:endParaRPr lang="nl-NL"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1020,17 +1070,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.9886482939632542E-2"/>
-          <c:y val="0.17171296296296298"/>
-          <c:w val="0.87122462817147861"/>
-          <c:h val="0.61498432487605714"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1039,7 +1079,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$2</c:f>
+              <c:f>'Task 1'!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1074,48 +1114,48 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$F$1</c:f>
+              <c:f>'Task 1'!$B$33:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$2:$F$2</c:f>
+              <c:f>'Task 1'!$B$34:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.3547500000000001E-2</c:v>
+                  <c:v>2.5863299999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.10843E-2</c:v>
+                  <c:v>4.7210799999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2726400000000001E-2</c:v>
+                  <c:v>6.8147799999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4779E-2</c:v>
+                  <c:v>7.6768900000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8473799999999999E-2</c:v>
+                  <c:v>0.10879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1127,7 +1167,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$3</c:f>
+              <c:f>'Task 1'!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1162,48 +1202,48 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$F$1</c:f>
+              <c:f>'Task 1'!$B$33:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$3:$F$3</c:f>
+              <c:f>'Task 1'!$B$35:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.6947600000000001E-3</c:v>
+                  <c:v>2.8326500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9263500000000003E-3</c:v>
+                  <c:v>3.07897E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7474099999999997E-3</c:v>
+                  <c:v>5.17267E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2105800000000003E-3</c:v>
+                  <c:v>4.6800300000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2105800000000003E-3</c:v>
+                  <c:v>5.1316100000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1220,11 +1260,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="191976640"/>
-        <c:axId val="191977184"/>
+        <c:axId val="-17472080"/>
+        <c:axId val="-17470992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="191976640"/>
+        <c:axId val="-17472080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,7 +1307,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191977184"/>
+        <c:crossAx val="-17470992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1275,7 +1315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191977184"/>
+        <c:axId val="-17470992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,7 +1366,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191976640"/>
+        <c:crossAx val="-17472080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1370,6 +1410,1784 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2A'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubblesort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.2315900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.64212E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8736999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6211099999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6211099999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.10843E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.56001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2989599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8736999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4484399999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2A'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertionsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.2105800000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2105800000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2315900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4631700000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4631700000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.28423E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.28423E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1579399999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.97899E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3895200000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2A'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mergesort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.64212E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.64212E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4631700000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1052900000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6947600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5158200000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3368799999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1579399999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5684699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3895200000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2A'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quicksort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.2105800000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2105800000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.64212E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.05265E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4631700000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8736999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6947600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6947600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5158000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9263500000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-277455808"/>
+        <c:axId val="-17473712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-277455808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-17473712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-17473712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-277455808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2A'!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubblesort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Task 2A'!$B$58:$K$58</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$59:$K$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14.2121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.046999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>225.768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>348.726</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>537.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>697.63800000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>911.11900000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1154.56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1433.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2A'!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertionsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Task 2A'!$B$58:$K$58</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$60:$K$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.7254999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.955399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.028199999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.201099999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.801699999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.079300000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>123.375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>162.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>203.892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>249.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2A'!$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mergesort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Task 2A'!$B$58:$K$58</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$61:$K$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.22620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46143499999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66669900000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93888000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2705900000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4503999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.68851</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9931000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1930499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2A'!$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quicksort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Task 2A'!$B$58:$K$58</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$62:$K$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.171601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.440498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71760500000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84445800000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.04521</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3034300000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7640400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1105299999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4028299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-17476976"/>
+        <c:axId val="-17469904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-17476976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-17469904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-17469904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-17476976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2B'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Task 2B'!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Bucketsort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Countingsort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Radixsort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quicksort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mergesort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Insertionsort</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Selectionsort</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Bubblesort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2B'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.34894999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95899599999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0071300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4107700000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5967399999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1015.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2687.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5805.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="-2068296400"/>
+        <c:axId val="-2068294224"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="-2068296400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2068294224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2068294224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2068296400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1527,6 +3345,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3036,20 +4974,1520 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3068,6 +6506,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3075,20 +6573,85 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>82643</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>119061</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>177612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3106,41 +6669,39 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A58:K62" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A58:K62"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="1000"/>
+    <tableColumn id="3" name="2000"/>
+    <tableColumn id="4" name="3000"/>
+    <tableColumn id="5" name="4000"/>
+    <tableColumn id="6" name="5000"/>
+    <tableColumn id="7" name="6000"/>
+    <tableColumn id="8" name="7000"/>
+    <tableColumn id="9" name="8000"/>
+    <tableColumn id="10" name="9000"/>
+    <tableColumn id="11" name="10000"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C9" totalsRowShown="0">
+  <autoFilter ref="A1:C9"/>
+  <sortState ref="A2:C9">
+    <sortCondition ref="B1:B9"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Algorithm"/>
+    <tableColumn id="2" name="Time"/>
+    <tableColumn id="3" name="Average Complexity"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3406,88 +6967,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:G7"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="10" width="11" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2">
+      <c r="B1" s="1">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1">
         <v>20</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1">
         <v>30</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1">
         <v>40</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>50</v>
       </c>
     </row>
@@ -3529,6 +7041,122 @@
       </c>
       <c r="F3">
         <v>1.64212E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3">
+        <v>100</v>
+      </c>
+      <c r="C19" s="3">
+        <v>200</v>
+      </c>
+      <c r="D19" s="3">
+        <v>300</v>
+      </c>
+      <c r="E19" s="3">
+        <v>400</v>
+      </c>
+      <c r="F19" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1.3547500000000001E-2</v>
+      </c>
+      <c r="C20">
+        <v>1.10843E-2</v>
+      </c>
+      <c r="D20">
+        <v>1.2726400000000001E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.4779E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.8473799999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3.6947600000000001E-3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4.9263500000000003E-3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5.7474099999999997E-3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8.2105800000000003E-3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8.2105800000000003E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F33" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>2.5863299999999999E-2</v>
+      </c>
+      <c r="C34">
+        <v>4.7210799999999997E-2</v>
+      </c>
+      <c r="D34">
+        <v>6.8147799999999994E-2</v>
+      </c>
+      <c r="E34">
+        <v>7.6768900000000001E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.10879</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>2.8326500000000001E-2</v>
+      </c>
+      <c r="C35">
+        <v>3.07897E-2</v>
+      </c>
+      <c r="D35">
+        <v>5.17267E-2</v>
+      </c>
+      <c r="E35">
+        <v>4.6800300000000003E-2</v>
+      </c>
+      <c r="F35">
+        <v>5.1316100000000003E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3538,154 +7166,498 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
-        <v>1000</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>5</v>
       </c>
       <c r="C1" s="1">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1">
-        <v>3000</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1">
-        <v>5000</v>
+        <v>25</v>
+      </c>
+      <c r="G1" s="1">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1">
+        <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>2.5863299999999999E-2</v>
+        <v>1.2315900000000001E-3</v>
       </c>
       <c r="C2">
-        <v>4.7210799999999997E-2</v>
+        <v>1.64212E-3</v>
       </c>
       <c r="D2">
-        <v>6.8147799999999994E-2</v>
+        <v>2.8736999999999999E-3</v>
       </c>
       <c r="E2">
-        <v>7.6768900000000001E-2</v>
+        <v>8.6211099999999995E-3</v>
       </c>
       <c r="F2">
-        <v>0.10879</v>
+        <v>8.6211099999999995E-3</v>
+      </c>
+      <c r="G2">
+        <v>1.10843E-2</v>
+      </c>
+      <c r="H2">
+        <v>1.56001E-2</v>
+      </c>
+      <c r="I2">
+        <v>2.2989599999999999E-2</v>
+      </c>
+      <c r="J2">
+        <v>2.8736999999999999E-2</v>
+      </c>
+      <c r="K2">
+        <v>3.4484399999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>2.8326500000000001E-2</v>
+        <v>8.2105800000000005E-4</v>
       </c>
       <c r="C3">
-        <v>3.07897E-2</v>
+        <v>8.2105800000000005E-4</v>
       </c>
       <c r="D3">
-        <v>5.17267E-2</v>
+        <v>1.2315900000000001E-3</v>
       </c>
       <c r="E3">
-        <v>4.6800300000000003E-2</v>
+        <v>2.4631700000000002E-3</v>
       </c>
       <c r="F3">
-        <v>5.1316100000000003E-2</v>
+        <v>2.4631700000000002E-3</v>
+      </c>
+      <c r="G3">
+        <v>3.28423E-3</v>
+      </c>
+      <c r="H3">
+        <v>3.28423E-3</v>
+      </c>
+      <c r="I3">
+        <v>6.1579399999999998E-3</v>
+      </c>
+      <c r="J3">
+        <v>6.97899E-3</v>
+      </c>
+      <c r="K3">
+        <v>7.3895200000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1.64212E-3</v>
+      </c>
+      <c r="C4">
+        <v>1.64212E-3</v>
+      </c>
+      <c r="D4">
+        <v>2.4631700000000002E-3</v>
+      </c>
+      <c r="E4">
+        <v>4.1052900000000002E-3</v>
+      </c>
+      <c r="F4">
+        <v>3.6947600000000001E-3</v>
+      </c>
+      <c r="G4">
+        <v>4.5158200000000003E-3</v>
+      </c>
+      <c r="H4">
+        <v>5.3368799999999996E-3</v>
+      </c>
+      <c r="I4">
+        <v>6.1579399999999998E-3</v>
+      </c>
+      <c r="J4">
+        <v>6.5684699999999999E-3</v>
+      </c>
+      <c r="K4">
+        <v>7.3895200000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>8.2105800000000005E-4</v>
+      </c>
+      <c r="C5">
+        <v>8.2105800000000005E-4</v>
+      </c>
+      <c r="D5">
+        <v>1.64212E-3</v>
+      </c>
+      <c r="E5">
+        <v>2.05265E-3</v>
+      </c>
+      <c r="F5">
+        <v>2.4631700000000002E-3</v>
+      </c>
+      <c r="G5">
+        <v>2.8736999999999999E-3</v>
+      </c>
+      <c r="H5">
+        <v>3.6947600000000001E-3</v>
+      </c>
+      <c r="I5">
+        <v>3.6947600000000001E-3</v>
+      </c>
+      <c r="J5">
+        <v>4.5158000000000004E-3</v>
+      </c>
+      <c r="K5">
+        <v>4.9263500000000003E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>14.2121</v>
+      </c>
+      <c r="C59">
+        <v>61.046999999999997</v>
+      </c>
+      <c r="D59">
+        <v>130.82</v>
+      </c>
+      <c r="E59">
+        <v>225.768</v>
+      </c>
+      <c r="F59">
+        <v>348.726</v>
+      </c>
+      <c r="G59">
+        <v>537.71</v>
+      </c>
+      <c r="H59">
+        <v>697.63800000000003</v>
+      </c>
+      <c r="I59">
+        <v>911.11900000000003</v>
+      </c>
+      <c r="J59">
+        <v>1154.56</v>
+      </c>
+      <c r="K59">
+        <v>1433.54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>2.7254999999999998</v>
+      </c>
+      <c r="C60">
+        <v>10.955399999999999</v>
+      </c>
+      <c r="D60">
+        <v>22.028199999999998</v>
+      </c>
+      <c r="E60">
+        <v>40.201099999999997</v>
+      </c>
+      <c r="F60">
+        <v>65.801699999999997</v>
+      </c>
+      <c r="G60">
+        <v>94.079300000000003</v>
+      </c>
+      <c r="H60">
+        <v>123.375</v>
+      </c>
+      <c r="I60">
+        <v>162.36000000000001</v>
+      </c>
+      <c r="J60">
+        <v>203.892</v>
+      </c>
+      <c r="K60">
+        <v>249.96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>0.22620000000000001</v>
+      </c>
+      <c r="C61">
+        <v>0.46143499999999998</v>
+      </c>
+      <c r="D61">
+        <v>0.66669900000000004</v>
+      </c>
+      <c r="E61">
+        <v>0.93888000000000005</v>
+      </c>
+      <c r="F61">
+        <v>1.2705900000000001</v>
+      </c>
+      <c r="G61">
+        <v>1.4503999999999999</v>
+      </c>
+      <c r="H61">
+        <v>1.68851</v>
+      </c>
+      <c r="I61">
+        <v>1.9931000000000001</v>
+      </c>
+      <c r="J61">
+        <v>2.1930499999999999</v>
+      </c>
+      <c r="K61">
+        <v>2.4615</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>0.171601</v>
+      </c>
+      <c r="C62">
+        <v>0.440498</v>
+      </c>
+      <c r="D62">
+        <v>0.71760500000000005</v>
+      </c>
+      <c r="E62">
+        <v>0.84445800000000004</v>
+      </c>
+      <c r="F62">
+        <v>1.04521</v>
+      </c>
+      <c r="G62">
+        <v>1.3034300000000001</v>
+      </c>
+      <c r="H62">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="I62">
+        <v>1.7640400000000001</v>
+      </c>
+      <c r="J62">
+        <v>2.1105299999999998</v>
+      </c>
+      <c r="K62">
+        <v>2.4028299999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
-        <v>100</v>
-      </c>
-      <c r="C1" s="1">
-        <v>200</v>
-      </c>
-      <c r="D1" s="1">
-        <v>300</v>
-      </c>
-      <c r="E1" s="1">
-        <v>400</v>
-      </c>
-      <c r="F1" s="1">
-        <v>500</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>1.3547500000000001E-2</v>
-      </c>
-      <c r="C2">
-        <v>1.10843E-2</v>
-      </c>
-      <c r="D2">
-        <v>1.2726400000000001E-2</v>
-      </c>
-      <c r="E2">
-        <v>1.4779E-2</v>
-      </c>
-      <c r="F2">
-        <v>1.8473799999999999E-2</v>
+        <v>0.34894999999999998</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3.6947600000000001E-3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4.9263500000000003E-3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5.7474099999999997E-3</v>
-      </c>
-      <c r="E3" s="2">
-        <v>8.2105800000000003E-3</v>
-      </c>
-      <c r="F3" s="2">
-        <v>8.2105800000000003E-3</v>
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0.95899599999999996</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>3.0071300000000001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5.4107700000000003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5.5967399999999996</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1015.09</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2687.26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>5805.76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -12,9 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4635" tabRatio="748" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Task 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Task 2A" sheetId="5" r:id="rId2"/>
-    <sheet name="Task 2B" sheetId="6" r:id="rId3"/>
+    <sheet name="Task 1 push_back()" sheetId="1" r:id="rId1"/>
+    <sheet name="Task 1 pop_back()" sheetId="7" r:id="rId2"/>
+    <sheet name="Task 1 resize()" sheetId="8" r:id="rId3"/>
+    <sheet name="Task 1 erase()" sheetId="9" r:id="rId4"/>
+    <sheet name="Task 2A" sheetId="5" r:id="rId5"/>
+    <sheet name="Task 2B" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Vector Implementation</t>
   </si>
@@ -107,6 +110,30 @@
   </si>
   <si>
     <t>10000</t>
+  </si>
+  <si>
+    <t>resize 100 to 5000 (NO valuetype given)</t>
+  </si>
+  <si>
+    <t>resize 100 to 5000 (WITH valuetype given)</t>
+  </si>
+  <si>
+    <t>resize 100 to 500,000 (NO valuetype given)</t>
+  </si>
+  <si>
+    <t>resize 100 to 500,000 (WITH valuetype given)</t>
+  </si>
+  <si>
+    <t>resize 5000 to 100</t>
+  </si>
+  <si>
+    <t>resize 500,000 to 100</t>
+  </si>
+  <si>
+    <t>Pop_back 1 element</t>
+  </si>
+  <si>
+    <t>4x faster</t>
   </si>
 </sst>
 </file>
@@ -229,7 +256,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 1'!$A$2</c:f>
+              <c:f>'Task 1 push_back()'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -264,7 +291,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Task 1'!$B$1:$F$1</c:f>
+              <c:f>'Task 1 push_back()'!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -288,7 +315,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Task 1'!$B$2:$F$2</c:f>
+              <c:f>'Task 1 push_back()'!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -317,7 +344,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 1'!$A$3</c:f>
+              <c:f>'Task 1 push_back()'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -352,7 +379,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Task 1'!$B$1:$F$1</c:f>
+              <c:f>'Task 1 push_back()'!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -376,7 +403,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Task 1'!$B$3:$F$3</c:f>
+              <c:f>'Task 1 push_back()'!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -410,11 +437,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-277469952"/>
-        <c:axId val="-277467776"/>
+        <c:axId val="1106951200"/>
+        <c:axId val="1106953920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-277469952"/>
+        <c:axId val="1106951200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -457,7 +484,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-277467776"/>
+        <c:crossAx val="1106953920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -465,7 +492,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-277467776"/>
+        <c:axId val="1106953920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0000000000000002E-2"/>
@@ -518,7 +545,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-277469952"/>
+        <c:crossAx val="1106951200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -562,6 +589,2129 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Erasing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> 25,000 elements</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.8478346456692919E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.86258530183727034"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 1 erase()'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Task 1 erase()'!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Standard Vector</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vector Implementation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 1 erase()'!$C$2:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.3958E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24960199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1178264752"/>
+        <c:axId val="1178267472"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1178264752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1178267472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1178267472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1178264752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2A'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubblesort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.2315900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.64212E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8736999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6211099999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6211099999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.10843E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.56001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2989599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8736999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4484399999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2A'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertionsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.2105800000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2105800000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2315900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4631700000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4631700000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.28423E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.28423E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1579399999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.97899E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3895200000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2A'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mergesort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.64212E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.64212E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4631700000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1052900000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6947600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5158200000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3368799999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1579399999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5684699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3895200000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2A'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quicksort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.2105800000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2105800000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.64212E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.05265E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4631700000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8736999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6947600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6947600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5158000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9263500000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1114622688"/>
+        <c:axId val="1114625952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1114622688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1114625952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1114625952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1114622688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2A'!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubblesort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Task 2A'!$B$58:$K$58</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$59:$K$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14.2121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.046999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>225.768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>348.726</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>537.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>697.63800000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>911.11900000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1154.56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1433.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2A'!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertionsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Task 2A'!$B$58:$K$58</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$60:$K$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.7254999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.955399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.028199999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.201099999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.801699999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.079300000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>123.375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>162.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>203.892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>249.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2A'!$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mergesort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Task 2A'!$B$58:$K$58</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$61:$K$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.22620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46143499999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66669900000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93888000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2705900000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4503999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.68851</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9931000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1930499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2A'!$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quicksort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Task 2A'!$B$58:$K$58</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2A'!$B$62:$K$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.171601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.440498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71760500000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84445800000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.04521</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3034300000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7640400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1105299999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4028299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1114623232"/>
+        <c:axId val="1114632480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1114623232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1114632480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1114632480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1114623232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2B'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Task 2B'!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Bucketsort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Countingsort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Radixsort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quicksort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mergesort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Insertionsort</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Selectionsort</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Bubblesort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2B'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.34894999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95899599999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0071300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4107700000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5967399999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1015.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2687.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5805.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1114624864"/>
+        <c:axId val="1114628128"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1114624864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1114628128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1114628128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1114624864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -655,7 +2805,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 1'!$A$20</c:f>
+              <c:f>'Task 1 push_back()'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -690,7 +2840,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Task 1'!$B$19:$F$19</c:f>
+              <c:f>'Task 1 push_back()'!$B$19:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -714,7 +2864,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Task 1'!$B$20:$F$20</c:f>
+              <c:f>'Task 1 push_back()'!$B$20:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -743,7 +2893,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 1'!$A$21</c:f>
+              <c:f>'Task 1 push_back()'!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -778,7 +2928,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Task 1'!$B$19:$F$19</c:f>
+              <c:f>'Task 1 push_back()'!$B$19:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -802,7 +2952,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Task 1'!$B$21:$F$21</c:f>
+              <c:f>'Task 1 push_back()'!$B$21:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -836,11 +2986,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-77619760"/>
-        <c:axId val="-77617040"/>
+        <c:axId val="1106952832"/>
+        <c:axId val="1106944672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-77619760"/>
+        <c:axId val="1106952832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,7 +3033,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-77617040"/>
+        <c:crossAx val="1106944672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -891,7 +3041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-77617040"/>
+        <c:axId val="1106944672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,7 +3092,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-77619760"/>
+        <c:crossAx val="1106952832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1079,7 +3229,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 1'!$A$34</c:f>
+              <c:f>'Task 1 push_back()'!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1114,7 +3264,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Task 1'!$B$33:$F$33</c:f>
+              <c:f>'Task 1 push_back()'!$B$33:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1138,7 +3288,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Task 1'!$B$34:$F$34</c:f>
+              <c:f>'Task 1 push_back()'!$B$34:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1167,7 +3317,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 1'!$A$35</c:f>
+              <c:f>'Task 1 push_back()'!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1202,7 +3352,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Task 1'!$B$33:$F$33</c:f>
+              <c:f>'Task 1 push_back()'!$B$33:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1226,7 +3376,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Task 1'!$B$35:$F$35</c:f>
+              <c:f>'Task 1 push_back()'!$B$35:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1260,11 +3410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-17472080"/>
-        <c:axId val="-17470992"/>
+        <c:axId val="867261632"/>
+        <c:axId val="1114621600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-17472080"/>
+        <c:axId val="867261632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1307,7 +3457,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-17470992"/>
+        <c:crossAx val="1114621600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1315,7 +3465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-17470992"/>
+        <c:axId val="1114621600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1366,7 +3516,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-17472080"/>
+        <c:crossAx val="867261632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1495,480 +3645,63 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 2A'!$A$2</c:f>
+              <c:f>'Task 1 pop_back()'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Bubblesort</c:v>
+                  <c:v>Pop_back 1 element</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'Task 2A'!$B$1:$K$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+            <c:strRef>
+              <c:f>'Task 1 pop_back()'!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>Standard Vector</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Vector Implementation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Task 2A'!$B$2:$K$2</c:f>
+              <c:f>'Task 1 pop_back()'!$B$2:$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.2315900000000001E-3</c:v>
+                  <c:v>4.1052900000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.64212E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8736999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.6211099999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.6211099999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.10843E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.56001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2989599999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.8736999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.4484399999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Task 2A'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Insertionsort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Task 2A'!$B$1:$K$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Task 2A'!$B$3:$K$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>8.2105800000000005E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.2105800000000005E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2315900000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4631700000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4631700000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.28423E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.28423E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.1579399999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.97899E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.3895200000000001E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Task 2A'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mergesort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Task 2A'!$B$1:$K$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Task 2A'!$B$4:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.64212E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.64212E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.4631700000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.1052900000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6947600000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.5158200000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.3368799999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.1579399999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.5684699999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.3895200000000001E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Task 2A'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quicksort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Task 2A'!$B$1:$K$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Task 2A'!$B$5:$K$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>8.2105800000000005E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.2105800000000005E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.64212E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.05265E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4631700000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8736999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.6947600000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.6947600000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.5158000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.9263500000000003E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1978,13 +3711,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-277455808"/>
-        <c:axId val="-17473712"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1174372976"/>
+        <c:axId val="1174368624"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-277455808"/>
+        <c:axId val="1174372976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2027,7 +3760,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-17473712"/>
+        <c:crossAx val="1174368624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2035,7 +3768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-17473712"/>
+        <c:axId val="1174368624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,7 +3819,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-277455808"/>
+        <c:crossAx val="1174372976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2098,38 +3831,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2182,7 +3883,44 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Testing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> resize()</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44004855643044627"/>
+          <c:y val="4.6296296296296294E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2215,476 +3953,117 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 2A'!$A$59</c:f>
+              <c:f>'Task 1 resize()'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Bubblesort</c:v>
+                  <c:v>Standard Vector</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Task 2A'!$B$58:$K$58</c:f>
+              <c:f>'Task 1 resize()'!$B$1:$C$1</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>resize 100 to 5000 (NO valuetype given)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>resize 100 to 5000 (WITH valuetype given)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Task 2A'!$B$59:$K$59</c:f>
+              <c:f>'Task 1 resize()'!$B$2:$C$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>14.2121</c:v>
+                  <c:v>2.0937000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.046999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>130.82</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>225.768</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>348.726</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>537.71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>697.63800000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>911.11900000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1154.56</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1433.54</c:v>
+                  <c:v>1.3547500000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 2A'!$A$60</c:f>
+              <c:f>'Task 1 resize()'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Insertionsort</c:v>
+                  <c:v>Vector Implementation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Task 2A'!$B$58:$K$58</c:f>
+              <c:f>'Task 1 resize()'!$B$1:$C$1</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>resize 100 to 5000 (NO valuetype given)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>resize 100 to 5000 (WITH valuetype given)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Task 2A'!$B$60:$K$60</c:f>
+              <c:f>'Task 1 resize()'!$B$3:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.7254999999999998</c:v>
+                  <c:v>3.2021300000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.955399999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.028199999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40.201099999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65.801699999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>94.079300000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>123.375</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>162.36000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>203.892</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>249.96</c:v>
+                  <c:v>2.7916E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Task 2A'!$A$61</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mergesort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Task 2A'!$B$58:$K$58</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Task 2A'!$B$61:$K$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.22620000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.46143499999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.66669900000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.93888000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2705900000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4503999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.68851</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.9931000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.1930499999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.4615</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Task 2A'!$A$62</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quicksort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Task 2A'!$B$58:$K$58</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Task 2A'!$B$62:$K$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.171601</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.440498</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.71760500000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.84445800000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.04521</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3034300000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7640400000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.1105299999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.4028299999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2694,13 +4073,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-17476976"/>
-        <c:axId val="-17469904"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1114773792"/>
+        <c:axId val="1174372432"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-17476976"/>
+        <c:axId val="1114773792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2743,7 +4122,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-17469904"/>
+        <c:crossAx val="1174372432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2751,7 +4130,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-17469904"/>
+        <c:axId val="1174372432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2802,7 +4181,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-17476976"/>
+        <c:crossAx val="1114773792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2929,6 +4308,935 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 1 resize()'!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard Vector</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Task 1 resize()'!$B$18:$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>resize 100 to 500,000 (NO valuetype given)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>resize 100 to 500,000 (WITH valuetype given)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 1 resize()'!$B$19:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.5809500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 1 resize()'!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vector Implementation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Task 1 resize()'!$B$18:$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>resize 100 to 500,000 (NO valuetype given)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>resize 100 to 500,000 (WITH valuetype given)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 1 resize()'!$B$20:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.8120799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.97054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1166815392"/>
+        <c:axId val="1166815936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1166815392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1166815936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1166815936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1166815392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 1 resize()'!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>resize 5000 to 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Task 1 resize()'!$A$37:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Standard Vector</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vector Implementation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 1 resize()'!$B$37:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.1052900000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9263500000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1170918400"/>
+        <c:axId val="1206375056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1170918400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1206375056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1206375056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1170918400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 1 resize()'!$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>resize 500,000 to 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Task 1 resize()'!$A$53:$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Standard Vector</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vector Implementation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 1 resize()'!$B$53:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.2105800000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28531800000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1178270736"/>
+        <c:axId val="1178260400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1178270736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1178260400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1178260400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1178270736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Erasing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> one element</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="15"/>
       <c:rotY val="20"/>
@@ -2979,11 +5287,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 2B'!$B$1</c:f>
+              <c:f>'Task 1 erase()'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3001,65 +5309,29 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Task 2B'!$A$2:$A$9</c:f>
+              <c:f>'Task 1 erase()'!$A$2:$A$3</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Bucketsort</c:v>
+                  <c:v>Standard Vector</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Countingsort</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Radixsort</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quicksort</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mergesort</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Insertionsort</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Selectionsort</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Bubblesort</c:v>
+                  <c:v>Vector Implementation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Task 2B'!$B$2:$B$9</c:f>
+              <c:f>'Task 1 erase()'!$B$2:$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.34894999999999998</c:v>
+                  <c:v>1.2315900000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95899599999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0071300000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.4107700000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.5967399999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1015.09</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2687.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5805.76</c:v>
+                  <c:v>2.4631700000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3075,12 +5347,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2068296400"/>
-        <c:axId val="-2068294224"/>
+        <c:axId val="1114621056"/>
+        <c:axId val="1114633568"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2068296400"/>
+        <c:axId val="1114621056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3117,7 +5389,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2068294224"/>
+        <c:crossAx val="1114633568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3125,7 +5397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2068294224"/>
+        <c:axId val="1114633568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3176,7 +5448,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2068296400"/>
+        <c:crossAx val="1114621056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3226,6 +5498,166 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3465,6 +5897,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3968,8 +6520,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3992,17 +6544,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -4173,22 +6714,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4293,8 +6835,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4426,19 +6968,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4471,7 +7014,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4974,7 +7517,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5477,8 +8020,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5501,17 +8044,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -5682,6 +8214,511 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -5980,7 +9017,3025 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6573,6 +12628,231 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>122144</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>79562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>155762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>113179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>189379</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>82643</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -6634,7 +12914,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6969,15 +13249,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
@@ -7168,9 +13448,275 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4.1052900000000003E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1.64212E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="str">
+        <f>((B3-B2)/B2) * 100 &amp; " % faster"</f>
+        <v>300.000974352604 % faster</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2.0937000000000001E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.3547500000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>3.2021300000000003E-2</v>
+      </c>
+      <c r="C3">
+        <v>2.7916E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="str">
+        <f>(B3-B2)/B2*100 &amp; " % faster"</f>
+        <v>52.9412045660792 % faster</v>
+      </c>
+      <c r="C4" t="str">
+        <f>(C3-C2)/C2*100 &amp; " % faster"</f>
+        <v>106.060158700867 % faster</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1.5809500000000001</v>
+      </c>
+      <c r="C19">
+        <v>1.1113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>1.8120799999999999</v>
+      </c>
+      <c r="C20">
+        <v>1.97054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="str">
+        <f>(B20-B19)/B19*100 &amp; " % faster"</f>
+        <v>14.6196906923052 % faster</v>
+      </c>
+      <c r="C21" t="str">
+        <f>(C20-C19)/C19*100 &amp; " % faster"</f>
+        <v>77.3184558625034 % faster</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>4.1052900000000003E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>4.9263500000000003E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="str">
+        <f>(B38-B37)/B37*100 &amp; " % faster"</f>
+        <v>1100.0004871763 % faster</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>8.2105800000000005E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0.28531800000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="str">
+        <f>(B54-B53)/B53*100 &amp; " % faster"</f>
+        <v>34650.042018956 % faster</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1.2315900000000001E-3</v>
+      </c>
+      <c r="C2">
+        <v>1.3958E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2.4631700000000002E-3</v>
+      </c>
+      <c r="C3">
+        <v>0.24960199999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="str">
+        <f>(B3-B2)/B3*100 &amp;" % faster"</f>
+        <v>49.9997970095446 % faster</v>
+      </c>
+      <c r="C4" t="str">
+        <f>(C3-C2)/C2 *100 &amp; " % faster"</f>
+        <v>1688.23613698238 % faster</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
@@ -7539,7 +14085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
